--- a/usaspending_api/references/tests/data/20181219rosetta-test-file.xlsx
+++ b/usaspending_api/references/tests/data/20181219rosetta-test-file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianzito/Documents/DATA/usaspending-api/usaspending_api/references/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sethstoudenmier/Documents/DATA_Act/projects/usaspending-api/usaspending_api/references/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791108C4-4788-EA45-9B81-2B4A62B6F07A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789FFD57-0AC2-044A-B9EF-55DD0896A9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Public!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Public!$A$2:$P$2</definedName>
     <definedName name="_Remove" localSheetId="1">'[1]Combined Master'!#REF!</definedName>
     <definedName name="_Remove">'[1]Combined Master'!#REF!</definedName>
     <definedName name="hh">'[1]Combined Master'!#REF!</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>DATA Act Information Model Schema (DAIMS)</t>
   </si>
@@ -209,6 +209,13 @@
   </si>
   <si>
     <t>Grouping</t>
+  </si>
+  <si>
+    <t>Domain Values</t>
+  </si>
+  <si>
+    <t>F = False
+T = True</t>
   </si>
 </sst>
 </file>
@@ -477,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,6 +618,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1537,69 +1547,70 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:O436"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="19" width="10.33203125" customWidth="1"/>
-    <col min="20" max="21" width="8" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" customWidth="1"/>
-    <col min="23" max="23" width="8" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" customWidth="1"/>
-    <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="9" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" customWidth="1"/>
-    <col min="28" max="28" width="11" customWidth="1"/>
-    <col min="29" max="30" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
+    <col min="19" max="20" width="10.33203125" customWidth="1"/>
+    <col min="21" max="22" width="8" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" customWidth="1"/>
+    <col min="24" max="24" width="8" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
+    <col min="27" max="27" width="9" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" customWidth="1"/>
+    <col min="29" max="29" width="11" customWidth="1"/>
+    <col min="30" max="31" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="41"/>
+      <c r="N1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
-    </row>
-    <row r="2" spans="1:15" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="46"/>
+      <c r="P1" s="47"/>
+    </row>
+    <row r="2" spans="1:16" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>34</v>
       </c>
@@ -1612,41 +1623,44 @@
       <c r="D2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="K2" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="35" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="35" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>44</v>
       </c>
@@ -1659,14 +1673,14 @@
       <c r="D3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="36" t="s">
         <v>50</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>51</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>51</v>
@@ -1678,28 +1692,31 @@
         <v>51</v>
       </c>
       <c r="K3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="O3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="P3" s="36" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O2" xr:uid="{E5CD0A49-7DC9-4202-8D11-4489689C03D1}"/>
+  <autoFilter ref="A2:P2" xr:uid="{E5CD0A49-7DC9-4202-8D11-4489689C03D1}"/>
   <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
